--- a/assets/data/MSME Country Indicators - Burundi Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Burundi Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Burundi</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: Statistical Institution (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -62,6 +65,12 @@
   </si>
   <si>
     <t>Source: ISTEEBU, 2010</t>
+  </si>
+  <si>
+    <t>ISTEEBU</t>
+  </si>
+  <si>
+    <t>L'Institut de Statistiques et d’Etudes Economiques du Burundi (ISTEEBU), "ANNUAIRE STATISTIQUE DU BURUNDI 2011", Répartition des entreprises selon le nombre de travailleurs actifs (au 31 décembre), 2013, p. 160. Available at http://www.isteebu.bi/images/annuaires/annuaire%202011.pdf%20vf.pdf</t>
   </si>
 </sst>
 </file>
@@ -69,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -80,6 +89,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -112,26 +127,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -139,7 +157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -155,62 +173,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="D10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="C11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="D11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="D12" s="0" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/MSME Country Indicators - Burundi Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Burundi Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Burundi</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t>Source: ISTEEBU, 2010</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
   </si>
   <si>
     <t>ISTEEBU</t>
@@ -157,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -236,14 +257,81 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+    <row r="16">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/MSME Country Indicators - Burundi Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Burundi Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Burundi</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ISTEEBU</t>
-  </si>
-  <si>
-    <t>L'Institut de Statistiques et d’Etudes Economiques du Burundi (ISTEEBU), "ANNUAIRE STATISTIQUE DU BURUNDI 2011", Répartition des entreprises selon le nombre de travailleurs actifs (au 31 décembre), 2013, p. 160. Available at http://www.isteebu.bi/images/annuaires/annuaire%202011.pdf%20vf.pdf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +328,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/MSME Country Indicators - Burundi Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Burundi Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Burundi</t>
   </si>
@@ -46,22 +46,25 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.41</t>
   </si>
   <si>
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>99.1</t>
+    <t>89.01</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>99.14</t>
   </si>
   <si>
     <t>Source: ISTEEBU, 2010</t>
@@ -232,37 +235,37 @@
         <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -270,65 +273,65 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
